--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation Version" sheetId="1" r:id="rId2"/>
     <sheet name="Investments " sheetId="2" r:id="rId3"/>
     <sheet name="Investor_Gains" sheetId="3" r:id="rId4"/>
     <sheet name="Third Table" sheetId="4" r:id="rId5"/>
+    <sheet name="Cal_Beteiligungen (intern)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Powered by GrapeCity SpreadJS.</t>
   </si>
@@ -77,7 +78,7 @@
     <t>(Total of all investors)</t>
   </si>
   <si>
-    <t>[1,investors as invr]"{invr.name}"</t>
+    <t>[investor.name]</t>
   </si>
   <si>
     <t>…</t>
@@ -89,22 +90,16 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>[1,investors as invr]"in%"</t>
-  </si>
-  <si>
-    <t>[investments as inv]"{inv.name}"</t>
-  </si>
-  <si>
-    <t>[investments as inv]{inv.participation_quote}</t>
-  </si>
-  <si>
-    <t>[investments as inv]{inv.dividend_distribution}</t>
-  </si>
-  <si>
-    <t>[investments as inv]=SUM(F5:OFFSET(F5, 0, {investors.length}))</t>
-  </si>
-  <si>
-    <t>[investments as invm,investors as invr]=$B5*{invr.commitment}</t>
+    <t>in%</t>
+  </si>
+  <si>
+    <t>[investment.name]</t>
+  </si>
+  <si>
+    <t>[investment.participation_quote]</t>
+  </si>
+  <si>
+    <t>[investment.dividend_distribution]</t>
   </si>
   <si>
     <t xml:space="preserve">Random Value 1 </t>
@@ -117,6 +112,39 @@
   </si>
   <si>
     <t>*B2 + 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>31.12.2016</t>
+  </si>
+  <si>
+    <t>31.12.2017</t>
+  </si>
+  <si>
+    <t>Beteiligungen (Equity investments)</t>
+  </si>
+  <si>
+    <t>Anzahl der Anteile (Number of shares)</t>
+  </si>
+  <si>
+    <t>Zugänge (Additions)</t>
+  </si>
+  <si>
+    <t>Abgänge (Disposals)</t>
+  </si>
+  <si>
+    <t>[investment.name] Investment</t>
+  </si>
+  <si>
+    <t>[investment.name] HoldCo</t>
+  </si>
+  <si>
+    <t>Class A shares</t>
+  </si>
+  <si>
+    <t>[investment.beginningYear]</t>
   </si>
 </sst>
 </file>
@@ -129,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <color theme="1"/>
       <sz val="12"/>
@@ -169,10 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color indexed="0"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -274,7 +301,7 @@
       <i/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,8 +321,37 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color auto="1"/>
+      <sz val="10"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <b/>
+      <color auto="1"/>
+      <sz val="10"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color auto="1"/>
+      <sz val="10"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <i/>
+      <color auto="1"/>
+      <sz val="10"/>
+      <name val="Georgia"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +553,28 @@
         <fgColor rgb="FFC7E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -617,6 +693,60 @@
         <color theme="4"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1"/>
@@ -701,16 +831,16 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="1">
@@ -740,13 +870,13 @@
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="1">
@@ -763,7 +893,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -847,16 +977,16 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="30" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1">
@@ -886,13 +1016,439 @@
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="40" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" xfId="41" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="43" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="14" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="15" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="16" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="18" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="19" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="20" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="22" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="24" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="25" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="33" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="14" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="15" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="16" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="18" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="19" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="20" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="22" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="24" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="25" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="33" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="45" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="14" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="15" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="16" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="18" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="19" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="20" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="22" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="24" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="25" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="33" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="35" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="7" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1">
@@ -929,7 +1485,6 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -937,6 +1492,69 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="38" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1322,91 +1940,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25390625" customHeight="1" defaultRowHeight="15.997499999999997"/>
   <cols>
-    <col min="2" max="2" style="1" width="12.50390625" customWidth="1"/>
+    <col min="2" max="2" style="0" width="12.50390625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="50" customFormat="1" customHeight="1" ht="33.75">
-      <c r="C2" s="50" t="s">
+    <row r="2" s="194" customFormat="1" customHeight="1" ht="33.75">
+      <c r="C2" s="194" t="s">
         <v>4</v>
       </c>
-      <c s="50" t="s">
+      <c s="194" t="s">
         <v>5</v>
       </c>
-      <c s="50" t="s">
+      <c s="194" t="s">
         <v>6</v>
       </c>
-      <c s="50" t="s">
+      <c s="194" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c s="0" t="s">
         <v>9</v>
       </c>
-      <c s="52">
+      <c s="196">
         <v>10000</v>
       </c>
-      <c s="53">
+      <c s="197">
         <v>20</v>
       </c>
-      <c s="56" t="s">
+      <c s="200" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
       <c s="0" t="s">
         <v>9</v>
       </c>
-      <c s="52">
+      <c s="196">
         <v>200000</v>
       </c>
-      <c s="53">
+      <c s="197">
         <v>40000</v>
       </c>
-      <c s="54">
+      <c s="198">
         <f>SUM(D4:E4)</f>
         <v>240000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
       <c s="0" t="s">
         <v>9</v>
       </c>
-      <c s="52">
+      <c s="196">
         <v>0</v>
       </c>
-      <c s="53">
+      <c s="197">
         <v>3000</v>
       </c>
-      <c s="54"/>
+      <c s="198"/>
     </row>
     <row r="7" customHeight="1" ht="15.75">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="200" t="s">
         <v>14</v>
       </c>
-      <c s="54">
+      <c s="198">
         <f>SUM(E3:E5)</f>
         <v>43020</v>
       </c>
-      <c s="54">
+      <c s="198">
         <f>SUM(F3:F5)</f>
         <v>240000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="200" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1427,41 +2045,49 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25390625" customHeight="1" defaultRowHeight="15.997499999999997"/>
+  <cols>
+    <col min="1" max="1" style="0" width="25.875" customWidth="1"/>
+    <col min="2" max="2" style="0" width="18.50390625" customWidth="1"/>
+    <col min="3" max="3" style="0" width="20.50390625" customWidth="1"/>
+    <col min="4" max="4" style="0" width="19.875" customWidth="1"/>
+    <col min="5" max="5" style="0" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row customHeight="1" ht="15.75">
       <c r="B1" s="0">
         <v>2017</v>
       </c>
     </row>
-    <row s="51" customFormat="1" customHeight="1" ht="75">
-      <c s="51" t="s">
+    <row s="195" customFormat="1" customHeight="1" ht="75">
+      <c s="195" t="s">
         <v>16</v>
       </c>
-      <c s="51" t="s">
+      <c s="195" t="s">
         <v>17</v>
       </c>
-      <c s="51" t="s">
+      <c s="195" t="s">
         <v>18</v>
       </c>
-      <c s="51" t="s">
+      <c s="195" t="s">
         <v>19</v>
       </c>
-      <c s="57" t="s">
+      <c s="211" t="s">
         <v>20</v>
       </c>
-      <c s="51"/>
-      <c s="51"/>
-      <c s="51"/>
-      <c s="51"/>
-      <c s="51" t="s">
+      <c s="195"/>
+      <c s="195"/>
+      <c s="195"/>
+      <c s="195"/>
+      <c s="195" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" ht="15.75">
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75">
       <c r="B4" s="0" t="s">
         <v>22</v>
       </c>
@@ -1471,176 +2097,82 @@
       <c s="0" t="s">
         <v>23</v>
       </c>
-      <c s="57" t="s">
+      <c s="211" t="s">
         <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
-      <c s="58" t="s">
+      <c s="211" t="s">
         <v>25</v>
       </c>
-      <c s="59" t="s">
+      <c s="212" t="s">
         <v>26</v>
       </c>
-      <c s="60" t="s">
+      <c s="212" t="s">
         <v>27</v>
       </c>
-      <c s="61" t="s">
-        <v>28</v>
-      </c>
-      <c s="62" t="s">
-        <v>29</v>
-      </c>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
+      <c s="213">
+        <f>SUM(F5:OFFSET(E5,0,[investors.length]))</f>
+      </c>
+      <c s="213">
+        <f>$B5*[investor.commitment]</f>
+      </c>
+      <c s="1"/>
+      <c s="0"/>
+      <c s="0"/>
+      <c s="0"/>
+      <c s="0"/>
+    </row>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
     <row customHeight="1" ht="15.75">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
+      <c r="F10" s="208"/>
     </row>
     <row customHeight="1" ht="15.75">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c r="J8" s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63" t="s">
+      <c r="F11" s="209"/>
+    </row>
+    <row customHeight="1" ht="15.75">
+      <c r="B12" s="209"/>
+      <c s="209"/>
+      <c s="209"/>
+      <c s="210"/>
+    </row>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75"/>
+    <row customHeight="1" ht="15.75">
+      <c s="0" t="s">
         <v>13</v>
       </c>
-      <c s="63"/>
-      <c s="64">
+      <c r="C17" s="213">
         <f>SUM(C5:C5)</f>
         <v>0</v>
       </c>
-      <c s="64">
+      <c s="213">
         <f>SUM(D5:D5)</f>
-        <v>0</v>
-      </c>
-      <c s="64">
+      </c>
+      <c s="213">
         <f>SUM(E5:E5)</f>
-        <v>0</v>
-      </c>
-      <c s="64">
+      </c>
+      <c s="213">
         <f>SUM(F5:F5)</f>
         <v>0</v>
       </c>
-      <c s="64">
+      <c s="213">
         <f>SUM(G5:G5)</f>
         <v>0</v>
       </c>
-      <c s="64">
+      <c s="213">
         <f>SUM(H5:H5)</f>
         <v>0</v>
       </c>
-      <c s="64">
+      <c s="213">
         <f>SUM(I5:I5)</f>
         <v>0</v>
       </c>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="65"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.75">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="66"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c r="B12" s="66"/>
-      <c s="66"/>
-      <c s="66"/>
-      <c s="67"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-    </row>
-    <row customHeight="1" ht="15.997499999999997">
-      <c r="F16" s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
-      <c s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.6979166666666666" right="0.6979166666666666" top="0.7916666666666666" bottom="0.7916666666666666" header="0.3020833333333333" footer="0.3020833333333333"/>
@@ -1666,18 +2198,18 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15.75">
       <c s="0" t="s">
-        <v>30</v>
-      </c>
-      <c s="56" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c s="200" t="s">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75">
       <c s="0" t="s">
-        <v>32</v>
-      </c>
-      <c s="56" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c s="200" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1690,4 +2222,175 @@
     <evenFooter>&amp;L&amp;C&amp;R</evenFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75390625" customHeight="1" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" style="0" width="29.125" customWidth="1"/>
+    <col min="2" max="2" style="0" width="21.50390625" customWidth="1"/>
+    <col min="3" max="3" style="0" width="21.125" customWidth="1"/>
+    <col min="4" max="4" style="0" width="18.625" customWidth="1"/>
+    <col min="5" max="5" style="0" width="22.25390625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15">
+      <c s="214"/>
+      <c s="231" t="s">
+        <v>20</v>
+      </c>
+      <c s="215"/>
+      <c s="215"/>
+      <c s="215"/>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="216" t="s">
+        <v>32</v>
+      </c>
+      <c s="217" t="s">
+        <v>33</v>
+      </c>
+      <c s="218" t="s">
+        <v>32</v>
+      </c>
+      <c s="218" t="s">
+        <v>32</v>
+      </c>
+      <c s="217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="219" t="s">
+        <v>35</v>
+      </c>
+      <c s="220" t="s">
+        <v>36</v>
+      </c>
+      <c s="220" t="s">
+        <v>37</v>
+      </c>
+      <c s="220" t="s">
+        <v>38</v>
+      </c>
+      <c s="220" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="219"/>
+      <c s="220"/>
+      <c s="220"/>
+      <c s="220"/>
+      <c s="220"/>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="221" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="232" t="s">
+        <v>39</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+      <c s="222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="233" t="s">
+        <v>40</v>
+      </c>
+      <c s="225" t="s">
+        <v>32</v>
+      </c>
+      <c s="225" t="s">
+        <v>32</v>
+      </c>
+      <c s="225" t="s">
+        <v>32</v>
+      </c>
+      <c s="225" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="226" t="s">
+        <v>41</v>
+      </c>
+      <c s="227" t="s">
+        <v>42</v>
+      </c>
+      <c s="227">
+        <v>15000000</v>
+      </c>
+      <c s="227">
+        <v>-8000000</v>
+      </c>
+      <c s="228">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15">
+      <c s="229" t="s">
+        <v>32</v>
+      </c>
+      <c s="230" t="s">
+        <v>32</v>
+      </c>
+      <c s="230" t="s">
+        <v>32</v>
+      </c>
+      <c s="230" t="s">
+        <v>32</v>
+      </c>
+      <c s="230" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageSetup pageOrder="downThenOver" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
+    <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
+    <evenHeader>&amp;L&amp;C&amp;R</evenHeader>
+    <evenFooter>&amp;L&amp;C&amp;R</evenFooter>
+  </headerFooter>
+</worksheet>
 </file>